--- a/Plots/Export graph.xlsx
+++ b/Plots/Export graph.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Export, Import\2019\Jan-Feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Export, Import\2019\Jan-May\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
-    <sheet name="Graphdata" sheetId="1" r:id="rId1"/>
+    <sheet name="Export graph" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Graphdata!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Export graph'!$A$4:$C$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,63 +27,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>25-27</t>
+  </si>
+  <si>
+    <t>+7202</t>
+  </si>
   <si>
     <t>Աճ</t>
   </si>
   <si>
+    <t>Ոսկի անմշակ կամ կիսամշակ, փոշի</t>
+  </si>
+  <si>
+    <t>Երկաթամիահալվածք</t>
+  </si>
+  <si>
+    <t>Պղինձի հանքաքար, խտանյութ</t>
+  </si>
+  <si>
+    <t>Թանկ. մետաղի թափոն եւ ջարդոն</t>
+  </si>
+  <si>
+    <t>Ոսկերչական իրեր</t>
+  </si>
+  <si>
+    <t>Ադամանդե քար</t>
+  </si>
+  <si>
+    <t>Ծխախոտի այլ պատրաստուք և խտահյութ</t>
+  </si>
+  <si>
     <t>Կոնյակ, ռոմ, ջին, օղի, լիկյոր</t>
   </si>
   <si>
-    <t>Ծխախոտի այլ պատրաստուք և խտահյութ</t>
-  </si>
-  <si>
     <t>Շոկոլադ (կակաո պարունակող)</t>
   </si>
   <si>
     <t>Սիգարետ և սիգար</t>
   </si>
   <si>
-    <t>Տարբեր արդյունաբերական ապրանքներ</t>
+    <t>Բուսական ծագման արտադրանք</t>
+  </si>
+  <si>
+    <t>Մեքենաներ, սարքավորումներ և մեխանիզմներ</t>
   </si>
   <si>
     <t>Սարքեր և ապարատներ</t>
   </si>
   <si>
-    <t>Իրեր քարից, գիպսից, ցեմենտից</t>
-  </si>
-  <si>
-    <t>Ոսկերչական իրեր</t>
-  </si>
-  <si>
-    <t>Ոսկի անմշակ կամ կիսամշակ, փոշի</t>
-  </si>
-  <si>
-    <t>Ադամանդե քար</t>
-  </si>
-  <si>
-    <t>Թանկ. մետաղի թափոն եւ ջարդոն</t>
-  </si>
-  <si>
-    <t>Մեքենաներ, սարքավորումներ և մեխանիզմներ</t>
-  </si>
-  <si>
-    <t>Մանածագործական իրեր</t>
-  </si>
-  <si>
-    <t>Երկաթամիահալվածք</t>
+    <t>Հագուստ</t>
+  </si>
+  <si>
+    <t>Էլեկտրաէներգիա</t>
   </si>
   <si>
     <t>Ալյումինե փայլաթիթեղներ&lt;0,2մմ</t>
   </si>
   <si>
     <t>Պղինձ չզտված, պղնձե անոդ էլ. զտման համար</t>
-  </si>
-  <si>
-    <t>Պղինձի հանքաքար, խտանյութ</t>
-  </si>
-  <si>
-    <t>Էլեկտրաէներգիա</t>
   </si>
 </sst>
 </file>
@@ -93,7 +96,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,8 +112,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -119,25 +141,22 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -152,35 +171,31 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -489,238 +504,243 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
         <v>2019</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
+        <v>96.341999859881639</v>
+      </c>
+      <c r="C5" s="6">
+        <v>25.854680282520903</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>59.725867085373295</v>
+      </c>
+      <c r="C6" s="6">
+        <v>13.027015399215323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>214.04834268829435</v>
+      </c>
+      <c r="C7" s="6">
+        <v>-20.839871635955888</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5">
+        <v>22.575777038722123</v>
+      </c>
+      <c r="C8" s="6">
+        <v>18.624149811192471</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5">
+        <v>18.13361171554325</v>
+      </c>
+      <c r="C9" s="6">
+        <v>8.3920738382015951</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5">
+        <v>24.944762252114142</v>
+      </c>
+      <c r="C10" s="6">
+        <v>-8.9998281812321856</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
+        <v>7.3732847864431372</v>
+      </c>
+      <c r="C11" s="6">
+        <v>7.2090360667279958</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5">
+        <v>77.972253061998259</v>
+      </c>
+      <c r="C12" s="6">
+        <v>3.4807479699090607</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5">
+        <v>5.9057304287621779</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1.456262877862037</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5">
+        <v>101.72924744077939</v>
+      </c>
+      <c r="C14" s="6">
+        <v>-2.0983834719786074</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="8">
+        <v>31.700000824225636</v>
+      </c>
+      <c r="C15" s="8">
+        <v>3.5469275180611852</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="8">
+        <v>18.174113339267763</v>
+      </c>
+      <c r="C16" s="8">
+        <v>2.6327559883161697</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="8">
+        <v>18.961184947991359</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1.8086486559619139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="8">
+        <v>67.818971407612537</v>
+      </c>
+      <c r="C18" s="8">
+        <v>-11.470126043437844</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="8">
+        <v>25.699881105451432</v>
+      </c>
+      <c r="C19" s="8">
+        <v>-14.005153090811874</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5">
+        <v>42.268528798443867</v>
+      </c>
+      <c r="C20" s="6">
+        <v>-2.5410428352577057</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>30.232850749332787</v>
-      </c>
-      <c r="C2" s="5">
-        <v>5.8952330604651095</v>
-      </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
-        <v>2.0952377335249435</v>
-      </c>
-      <c r="C3" s="5">
-        <v>2.0952377335249435</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4">
-        <v>2.5489560665161157</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0.82945701591275611</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4">
-        <v>39.747731061383696</v>
-      </c>
-      <c r="C5" s="5">
-        <v>-5.0498017524619314</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7">
-        <v>2.5843867788955035</v>
-      </c>
-      <c r="C6" s="8">
-        <v>1.398621295429531</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9">
-        <v>5.3746183535208383</v>
-      </c>
-      <c r="C7" s="8">
-        <v>1.282823630713529</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="9">
-        <v>2.3410383904742353</v>
-      </c>
-      <c r="C8" s="8">
-        <v>0.53416724901932389</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4">
-        <v>5.3302096078833916</v>
-      </c>
-      <c r="C9" s="5">
-        <v>2.2817932844867306</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4">
-        <v>36.089273044549373</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0.55127414439684941</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4">
-        <v>10.215938616300553</v>
-      </c>
-      <c r="C11" s="5">
-        <v>-2.2572933788850182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0.17029624307123792</v>
-      </c>
-      <c r="C12" s="5">
-        <v>-3.6590435371667858</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9">
-        <v>4.2804738246766565</v>
-      </c>
-      <c r="C13" s="8">
-        <v>-2.5221905039494681</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9">
-        <v>26.785643194415933</v>
-      </c>
-      <c r="C14" s="8">
-        <v>-3.3807990065241356</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4">
-        <v>19.353103058920141</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1.1828186549648407</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4">
-        <v>14.287662902894681</v>
-      </c>
-      <c r="C16" s="5">
-        <v>-4.9117469148004105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0</v>
-      </c>
-      <c r="C17" s="5">
-        <v>-15.436847795635888</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4">
-        <v>83.797157257236705</v>
-      </c>
-      <c r="C18" s="5">
-        <v>-7.7315286325502797</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4">
-        <v>2.2052391706015193</v>
-      </c>
-      <c r="C19" s="5">
-        <v>-18.260678423845288</v>
-      </c>
+      <c r="C21" s="10">
+        <v>-32.732584805903002</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1">
+  <autoFilter ref="A4:C4">
     <sortState ref="A5:F25">
       <sortCondition descending="1" ref="C4"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="B3 B5">
-    <cfRule type="top10" dxfId="2" priority="3" rank="4"/>
+  <conditionalFormatting sqref="B11 B14">
+    <cfRule type="top10" dxfId="2" priority="3" rank="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="top10" dxfId="1" priority="2" rank="4"/>
+  <conditionalFormatting sqref="B12">
+    <cfRule type="top10" dxfId="1" priority="2" rank="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="top10" dxfId="0" priority="1" rank="4"/>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="top10" dxfId="0" priority="1" rank="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Plots/Export graph.xlsx
+++ b/Plots/Export graph.xlsx
@@ -1,89 +1,87 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Export, Import\2019\Jan-May\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Random\ECON_P\Plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB66696F-48C2-4C0A-8D5A-738B6B73DA34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Export graph" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Export graph'!$A$4:$C$4</definedName>
-  </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>25-27</t>
-  </si>
-  <si>
-    <t>+7202</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Աճ</t>
   </si>
   <si>
+    <t>Պղինձի հանքաքար, խտանյութ</t>
+  </si>
+  <si>
+    <t>Սիգարետ և սիգար</t>
+  </si>
+  <si>
+    <t>Կոնյակ, ռոմ, ջին, օղի, լիկյոր</t>
+  </si>
+  <si>
     <t>Ոսկի անմշակ կամ կիսամշակ, փոշի</t>
   </si>
   <si>
+    <t xml:space="preserve">Հագուստ </t>
+  </si>
+  <si>
     <t>Երկաթամիահալվածք</t>
   </si>
   <si>
-    <t>Պղինձի հանքաքար, խտանյութ</t>
+    <t>Ալյումինե փայլաթիթեղներ&lt;0,2մմ</t>
   </si>
   <si>
     <t>Թանկ. մետաղի թափոն եւ ջարդոն</t>
   </si>
   <si>
+    <t>Էլեկտրաէներգիա</t>
+  </si>
+  <si>
+    <t>Ադամանդե քար</t>
+  </si>
+  <si>
     <t>Ոսկերչական իրեր</t>
   </si>
   <si>
-    <t>Ադամանդե քար</t>
-  </si>
-  <si>
-    <t>Ծխախոտի այլ պատրաստուք և խտահյութ</t>
-  </si>
-  <si>
-    <t>Կոնյակ, ռոմ, ջին, օղի, լիկյոր</t>
-  </si>
-  <si>
-    <t>Շոկոլադ (կակաո պարունակող)</t>
-  </si>
-  <si>
-    <t>Սիգարետ և սիգար</t>
-  </si>
-  <si>
-    <t>Բուսական ծագման արտադրանք</t>
-  </si>
-  <si>
-    <t>Մեքենաներ, սարքավորումներ և մեխանիզմներ</t>
-  </si>
-  <si>
-    <t>Սարքեր և ապարատներ</t>
-  </si>
-  <si>
-    <t>Հագուստ</t>
-  </si>
-  <si>
-    <t>Էլեկտրաէներգիա</t>
-  </si>
-  <si>
-    <t>Ալյումինե փայլաթիթեղներ&lt;0,2մմ</t>
+    <t>Ծիրան, բալ, դեղձ, կեռաս, հոն</t>
+  </si>
+  <si>
+    <t>Մոլիբդենի հանքաքար, խտանյութ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Շոկոլադ </t>
+  </si>
+  <si>
+    <t>Հաշվիչ հեղուկի, գազի, էլեկտրաէներգիայի, մասեր</t>
+  </si>
+  <si>
+    <t>Մրգային գինի</t>
   </si>
   <si>
     <t>Պղինձ չզտված, պղնձե անոդ էլ. զտման համար</t>
@@ -92,11 +90,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,53 +104,21 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="GHEA Grapalat"/>
+      <family val="3"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -161,74 +127,162 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
-        <color rgb="FF999999"/>
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom/>
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -503,245 +557,215 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="46.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B2" s="5">
+        <v>625.66891185347072</v>
+      </c>
+      <c r="C2" s="6">
+        <v>100.35701636909209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="5">
+        <v>271.52934602976376</v>
+      </c>
+      <c r="C3" s="6">
+        <v>5.9212748481658082</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>245.70167717764596</v>
+      </c>
+      <c r="C4" s="6">
+        <v>50.9430705812361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="5">
-        <v>96.341999859881639</v>
+        <v>223.79517806223333</v>
       </c>
       <c r="C5" s="6">
-        <v>25.854680282520903</v>
-      </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48.45182022873783</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="5">
-        <v>59.725867085373295</v>
+        <v>166.60724320949109</v>
       </c>
       <c r="C6" s="6">
-        <v>13.027015399215323</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-58.395641943410681</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="5">
-        <v>214.04834268829435</v>
+        <v>142.39842876469976</v>
       </c>
       <c r="C7" s="6">
-        <v>-20.839871635955888</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16.480479945883644</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="5">
-        <v>22.575777038722123</v>
+        <v>95.175273181392441</v>
       </c>
       <c r="C8" s="6">
-        <v>18.624149811192471</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2.4415316960614888</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="5">
-        <v>18.13361171554325</v>
+        <v>87.649279841814973</v>
       </c>
       <c r="C9" s="6">
-        <v>8.3920738382015951</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77.746179570587827</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="5">
-        <v>24.944762252114142</v>
+        <v>62.927631803517535</v>
       </c>
       <c r="C10" s="6">
-        <v>-8.9998281812321856</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-25.656143015836911</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="5">
-        <v>7.3732847864431372</v>
+        <v>53.54086210844001</v>
       </c>
       <c r="C11" s="6">
-        <v>7.2090360667279958</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-23.685055198336528</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="5">
-        <v>77.972253061998259</v>
+        <v>41.226532209387038</v>
       </c>
       <c r="C12" s="6">
-        <v>3.4807479699090607</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7.0102310437314301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="5">
-        <v>5.9057304287621779</v>
+        <v>23.873677385784163</v>
       </c>
       <c r="C13" s="6">
-        <v>1.456262877862037</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-4.3664070880144692</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="5">
-        <v>101.72924744077939</v>
+        <v>17.861793526901867</v>
       </c>
       <c r="C14" s="6">
-        <v>-2.0983834719786074</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="8">
-        <v>31.700000824225636</v>
-      </c>
-      <c r="C15" s="8">
-        <v>3.5469275180611852</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+        <v>10.220759965130402</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="8">
-        <v>18.174113339267763</v>
-      </c>
-      <c r="C16" s="8">
-        <v>2.6327559883161697</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="B15" s="5">
+        <v>17.821642002289522</v>
+      </c>
+      <c r="C15" s="6">
+        <v>2.2162714977242111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="8">
-        <v>18.961184947991359</v>
-      </c>
-      <c r="C17" s="8">
-        <v>1.8086486559619139</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="5">
+        <v>16.852966801956498</v>
+      </c>
+      <c r="C16" s="6">
+        <v>16.588874377682703</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5">
+        <v>14.307519200749297</v>
+      </c>
+      <c r="C17" s="6">
+        <v>6.0501993804631624</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" thickBot="1">
       <c r="A18" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="8">
-        <v>67.818971407612537</v>
-      </c>
-      <c r="C18" s="8">
-        <v>-11.470126043437844</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="8">
-        <v>25.699881105451432</v>
-      </c>
-      <c r="C19" s="8">
-        <v>-14.005153090811874</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="5">
-        <v>42.268528798443867</v>
-      </c>
-      <c r="C20" s="6">
-        <v>-2.5410428352577057</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="9">
         <v>0</v>
       </c>
-      <c r="C21" s="10">
-        <v>-32.732584805903002</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="6"/>
+      <c r="C18" s="9">
+        <v>-58.457658543655143</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:C4">
-    <sortState ref="A5:F25">
-      <sortCondition descending="1" ref="C4"/>
-    </sortState>
-  </autoFilter>
-  <conditionalFormatting sqref="B11 B14">
-    <cfRule type="top10" dxfId="2" priority="3" rank="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
-    <cfRule type="top10" dxfId="1" priority="2" rank="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13">
-    <cfRule type="top10" dxfId="0" priority="1" rank="5"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Plots/Export graph.xlsx
+++ b/Plots/Export graph.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Random\ECON_P\Plots\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Work\Export, Import\2020\10. Jan-Oct\Export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB66696F-48C2-4C0A-8D5A-738B6B73DA34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51331DD6-243D-4807-9775-98988899672B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="15610" windowHeight="8610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$19</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -23,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Աճ</t>
   </si>
@@ -45,46 +50,70 @@
     <t>Կոնյակ, ռոմ, ջին, օղի, լիկյոր</t>
   </si>
   <si>
+    <t>Ալյումինե փայլաթիթեղներ&lt;0,2մմ</t>
+  </si>
+  <si>
+    <t>Մոլիբդենի հանքաքար, խտանյութ</t>
+  </si>
+  <si>
+    <t>Ադամանդե քար</t>
+  </si>
+  <si>
+    <t>Լոլիկ</t>
+  </si>
+  <si>
+    <t>Ոսկերչական իրեր</t>
+  </si>
+  <si>
     <t>Ոսկի անմշակ կամ կիսամշակ, փոշի</t>
   </si>
   <si>
-    <t xml:space="preserve">Հագուստ </t>
-  </si>
-  <si>
     <t>Երկաթամիահալվածք</t>
   </si>
   <si>
-    <t>Ալյումինե փայլաթիթեղներ&lt;0,2մմ</t>
-  </si>
-  <si>
-    <t>Թանկ. մետաղի թափոն եւ ջարդոն</t>
-  </si>
-  <si>
-    <t>Էլեկտրաէներգիա</t>
-  </si>
-  <si>
-    <t>Ադամանդե քար</t>
-  </si>
-  <si>
-    <t>Ոսկերչական իրեր</t>
+    <t>Ձուկ (թարմ)</t>
   </si>
   <si>
     <t>Ծիրան, բալ, դեղձ, կեռաս, հոն</t>
   </si>
   <si>
-    <t>Մոլիբդենի հանքաքար, խտանյութ</t>
-  </si>
-  <si>
     <t xml:space="preserve">Շոկոլադ </t>
   </si>
   <si>
+    <t>Ոչխարներ, այծեր (կենդանի)</t>
+  </si>
+  <si>
     <t>Հաշվիչ հեղուկի, գազի, էլեկտրաէներգիայի, մասեր</t>
   </si>
   <si>
+    <t>Ելակ, մոշ, մորի, թութ, հաղարջ, կիվի, նուռ</t>
+  </si>
+  <si>
+    <t>Պանիր, կաթնաշոռ</t>
+  </si>
+  <si>
     <t>Մրգային գինի</t>
   </si>
   <si>
-    <t>Պղինձ չզտված, պղնձե անոդ էլ. զտման համար</t>
+    <t>Խաղողի գինի, շամպայն</t>
+  </si>
+  <si>
+    <t>Խաղող, չամիչ</t>
+  </si>
+  <si>
+    <t>Վարունգ</t>
+  </si>
+  <si>
+    <t>Ոչխարի կամ այծի թարմ միս, պաղեցրած կամ սառեցրած</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Կոստյում, անդրավարտիք, պիջակ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Վերարկու, թիկնոց, անձրևանոց և նման հագուստ </t>
+  </si>
+  <si>
+    <t>Ժամացույցի թափք, մասեր</t>
   </si>
 </sst>
 </file>
@@ -94,7 +123,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +138,17 @@
       <name val="GHEA Grapalat"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="GHEA Grapalat"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="GHEA Grapalat"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -118,7 +158,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -171,118 +211,45 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -558,214 +525,311 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.81640625" customWidth="1"/>
+    <col min="2" max="2" width="7.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
-        <v>625.66891185347072</v>
+      <c r="B2" s="6">
+        <v>522.1</v>
       </c>
       <c r="C2" s="6">
-        <v>100.35701636909209</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="6">
+        <v>233.2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
-        <v>271.52934602976376</v>
-      </c>
-      <c r="C3" s="6">
-        <v>5.9212748481658082</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="6">
+        <v>191</v>
+      </c>
+      <c r="C4" s="6">
+        <v>-28.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
-        <v>245.70167717764596</v>
-      </c>
-      <c r="C4" s="6">
-        <v>50.9430705812361</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5">
-        <v>223.79517806223333</v>
+      <c r="B5" s="6">
+        <v>156</v>
       </c>
       <c r="C5" s="6">
-        <v>48.45182022873783</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>-36.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
-        <v>166.60724320949109</v>
+      <c r="B6" s="6">
+        <v>85.3</v>
       </c>
       <c r="C6" s="6">
-        <v>-58.395641943410681</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6">
+        <v>78</v>
+      </c>
+      <c r="C7" s="6">
+        <v>-3.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="6">
+        <v>77.7</v>
+      </c>
+      <c r="C8" s="7">
+        <v>-43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="6">
+        <v>35.9</v>
+      </c>
+      <c r="C9" s="6">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="6">
+        <v>29.2</v>
+      </c>
+      <c r="C10" s="6">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
-        <v>142.39842876469976</v>
-      </c>
-      <c r="C7" s="6">
-        <v>16.480479945883644</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4" t="s">
+      <c r="B11" s="6">
+        <v>25.9</v>
+      </c>
+      <c r="C11" s="6">
+        <v>-18.100000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
-        <v>95.175273181392441</v>
-      </c>
-      <c r="C8" s="6">
-        <v>2.4415316960614888</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="4" t="s">
+      <c r="B12" s="6">
+        <v>25.7</v>
+      </c>
+      <c r="C12" s="6">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="6">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C13" s="6">
+        <v>-13.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
-        <v>87.649279841814973</v>
-      </c>
-      <c r="C9" s="6">
-        <v>77.746179570587827</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5">
-        <v>62.927631803517535</v>
-      </c>
-      <c r="C10" s="6">
-        <v>-25.656143015836911</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5">
-        <v>53.54086210844001</v>
-      </c>
-      <c r="C11" s="6">
-        <v>-23.685055198336528</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5">
-        <v>41.226532209387038</v>
-      </c>
-      <c r="C12" s="6">
-        <v>7.0102310437314301</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5">
-        <v>23.873677385784163</v>
-      </c>
-      <c r="C13" s="6">
-        <v>-4.3664070880144692</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="4" t="s">
+      <c r="B14" s="6">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="C14" s="6">
+        <v>-15.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="6">
+        <v>13.3</v>
+      </c>
+      <c r="C15" s="6">
+        <v>-6.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="5">
-        <v>17.861793526901867</v>
-      </c>
-      <c r="C14" s="6">
-        <v>10.220759965130402</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5">
-        <v>17.821642002289522</v>
-      </c>
-      <c r="C15" s="6">
-        <v>2.2162714977242111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5">
-        <v>16.852966801956498</v>
+      <c r="B16" s="6">
+        <v>10.5</v>
       </c>
       <c r="C16" s="6">
-        <v>16.588874377682703</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-2.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="5">
-        <v>14.307519200749297</v>
+      <c r="B17" s="6">
+        <v>10.4</v>
       </c>
       <c r="C17" s="6">
-        <v>6.0501993804631624</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" thickBot="1">
-      <c r="A18" s="7" t="s">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="6">
+        <v>10</v>
+      </c>
+      <c r="C18" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="6">
+        <v>9</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-7.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B20" s="6">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C20" s="6">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="6">
+        <v>8.6</v>
+      </c>
+      <c r="C21" s="6">
+        <v>-1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="6">
+        <v>7.8</v>
+      </c>
+      <c r="C22" s="6">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="6">
+        <v>6.6</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-2.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C24" s="6">
+        <v>-12.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C25" s="6">
+        <v>-2.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="6">
         <v>0</v>
       </c>
-      <c r="C18" s="9">
-        <v>-58.457658543655143</v>
+      <c r="C26" s="6">
+        <v>-7.6</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C19" xr:uid="{BFD9BADA-7393-4973-A96C-4D2DFF7509DA}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C22">
+      <sortCondition descending="1" ref="C1:C19"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="B2:B30">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Plots/Export graph.xlsx
+++ b/Plots/Export graph.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Work\Export, Import\2020\10. Jan-Oct\Export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Work\Export, Import\2021\4. Jan-April\Export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51331DD6-243D-4807-9775-98988899672B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF734D6E-4ECE-4CBA-9FBA-E8B32581A09C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="15610" windowHeight="8610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Աճ</t>
   </si>
@@ -56,64 +56,58 @@
     <t>Մոլիբդենի հանքաքար, խտանյութ</t>
   </si>
   <si>
+    <t>Լոլիկ</t>
+  </si>
+  <si>
+    <t>Ոսկերչական իրեր</t>
+  </si>
+  <si>
+    <t>Ոսկի անմշակ կամ կիսամշակ, փոշի</t>
+  </si>
+  <si>
+    <t>Երկաթամիահալվածք</t>
+  </si>
+  <si>
+    <t>Ձուկ (թարմ)</t>
+  </si>
+  <si>
     <t>Ադամանդե քար</t>
   </si>
   <si>
-    <t>Լոլիկ</t>
-  </si>
-  <si>
-    <t>Ոսկերչական իրեր</t>
-  </si>
-  <si>
-    <t>Ոսկի անմշակ կամ կիսամշակ, փոշի</t>
-  </si>
-  <si>
-    <t>Երկաթամիահալվածք</t>
-  </si>
-  <si>
-    <t>Ձուկ (թարմ)</t>
-  </si>
-  <si>
-    <t>Ծիրան, բալ, դեղձ, կեռաս, հոն</t>
+    <t>Խնձոր, տանձ, սերկեւիլ</t>
+  </si>
+  <si>
+    <t>Պանիր, կաթնաշոռ</t>
+  </si>
+  <si>
+    <t>Վարունգ</t>
+  </si>
+  <si>
+    <t>Մեղր բնական</t>
   </si>
   <si>
     <t xml:space="preserve">Շոկոլադ </t>
   </si>
   <si>
-    <t>Ոչխարներ, այծեր (կենդանի)</t>
-  </si>
-  <si>
-    <t>Հաշվիչ հեղուկի, գազի, էլեկտրաէներգիայի, մասեր</t>
-  </si>
-  <si>
-    <t>Ելակ, մոշ, մորի, թութ, հաղարջ, կիվի, նուռ</t>
-  </si>
-  <si>
-    <t>Պանիր, կաթնաշոռ</t>
+    <t>Խաղողի գինի, շամպայն</t>
   </si>
   <si>
     <t>Մրգային գինի</t>
   </si>
   <si>
-    <t>Խաղողի գինի, շամպայն</t>
-  </si>
-  <si>
-    <t>Խաղող, չամիչ</t>
-  </si>
-  <si>
-    <t>Վարունգ</t>
-  </si>
-  <si>
-    <t>Ոչխարի կամ այծի թարմ միս, պաղեցրած կամ սառեցրած</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Կոստյում, անդրավարտիք, պիջակ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Վերարկու, թիկնոց, անձրևանոց և նման հագուստ </t>
-  </si>
-  <si>
-    <t>Ժամացույցի թափք, մասեր</t>
+    <t>Պղնձի ջարդոն և թափոն</t>
+  </si>
+  <si>
+    <t>Պղնձե շրջաքար (նստվածքային)</t>
+  </si>
+  <si>
+    <t>Ընկույզ, պնդուկ, շագանակ, պիստակ</t>
+  </si>
+  <si>
+    <t>Կարտոֆիլ</t>
+  </si>
+  <si>
+    <t>Ձուկ (սառեցրած)</t>
   </si>
 </sst>
 </file>
@@ -158,7 +152,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -209,6 +203,17 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -228,10 +233,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -525,19 +530,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="51.81640625" customWidth="1"/>
+    <col min="1" max="1" width="44.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>2020</v>
@@ -546,289 +551,341 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
-        <v>522.1</v>
+      <c r="B2" s="7">
+        <v>258.63552952055028</v>
       </c>
       <c r="C2" s="6">
-        <v>14.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>70.954622317690223</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>62.997229782224288</v>
+      </c>
+      <c r="C3" s="6">
+        <v>-5.6466534179906276</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>62.550999366071991</v>
+      </c>
+      <c r="C4" s="6">
+        <v>4.7934403410567512</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6">
-        <v>233.2</v>
-      </c>
-      <c r="C3" s="6">
-        <v>44.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6">
-        <v>191</v>
-      </c>
-      <c r="C4" s="6">
-        <v>-28.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6">
-        <v>156</v>
+      <c r="B5" s="7">
+        <v>39.161468806451772</v>
       </c>
       <c r="C5" s="6">
-        <v>-36.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-3.6922698405967154</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7">
+        <v>35.009043531312713</v>
+      </c>
+      <c r="C6" s="6">
+        <v>3.121321561091289</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="7">
+        <v>29.485983327216488</v>
+      </c>
+      <c r="C7" s="6">
+        <v>14.236977220645983</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7">
+        <v>28.486346525073525</v>
+      </c>
+      <c r="C8" s="6">
+        <v>-16.496191783065466</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
-        <v>85.3</v>
-      </c>
-      <c r="C6" s="6">
-        <v>72.599999999999994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6">
-        <v>78</v>
-      </c>
-      <c r="C7" s="6">
-        <v>-3.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="6">
-        <v>77.7</v>
-      </c>
-      <c r="C8" s="7">
-        <v>-43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="6">
-        <v>35.9</v>
+      <c r="B9" s="7">
+        <v>22.551047792452923</v>
       </c>
       <c r="C9" s="6">
-        <v>14.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.7146129550364897</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="6">
-        <v>29.2</v>
+        <v>7</v>
+      </c>
+      <c r="B10" s="7">
+        <v>19.578053888647926</v>
       </c>
       <c r="C10" s="6">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>11.082127208824406</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="6">
-        <v>25.9</v>
+      <c r="B11" s="7">
+        <v>16.405302498057704</v>
       </c>
       <c r="C11" s="6">
-        <v>-18.100000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2.4464419779142901</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="6">
-        <v>25.7</v>
+        <v>10</v>
+      </c>
+      <c r="B12" s="7">
+        <v>10.676242951721379</v>
       </c>
       <c r="C12" s="6">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
+        <v>3.2158065024183138</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="7">
+        <v>5.8278524139311649</v>
+      </c>
+      <c r="C13" s="6">
+        <v>4.5649751962954719</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7">
+        <v>4.853575211031302</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1.9048782560504689</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="7">
+        <v>4.4384467333641568</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.13124098016879859</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="7">
+        <v>4.3255497776485567</v>
+      </c>
+      <c r="C16" s="6">
+        <v>3.0948726819376216</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="7">
+        <v>3.7116601764512427</v>
+      </c>
+      <c r="C17" s="6">
+        <v>3.7116601764512427</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="7">
+        <v>3.340814001706363</v>
+      </c>
+      <c r="C18" s="6">
+        <v>2.9448563240630241</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="7">
+        <v>3.2844088978708603</v>
+      </c>
+      <c r="C19" s="6">
+        <v>3.1872972747216886</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="7">
+        <v>3.1715544582298638</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.3173186061514599</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7">
+        <v>3.1022723221307609</v>
+      </c>
+      <c r="C21" s="6">
+        <v>3.0564036082303052</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="7">
+        <v>3.0018028340872158</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.69327657376752505</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="6">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="C13" s="6">
-        <v>-13.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="6">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="C14" s="6">
-        <v>-15.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="6">
-        <v>13.3</v>
-      </c>
-      <c r="C15" s="6">
-        <v>-6.9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="6">
-        <v>10.5</v>
-      </c>
-      <c r="C16" s="6">
-        <v>-2.8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6">
-        <v>10.4</v>
-      </c>
-      <c r="C17" s="6">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="6">
-        <v>10</v>
-      </c>
-      <c r="C18" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="6">
-        <v>9</v>
-      </c>
-      <c r="C19" s="6">
-        <v>-7.7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="6">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="C20" s="6">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="6">
-        <v>8.6</v>
-      </c>
-      <c r="C21" s="6">
-        <v>-1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
+      <c r="B23" s="7">
+        <v>1.8432903247332024</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1.7801653311910814</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="6">
-        <v>7.8</v>
-      </c>
-      <c r="C22" s="6">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="6">
-        <v>6.6</v>
-      </c>
-      <c r="C23" s="6">
-        <v>-2.6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="6">
-        <v>4.5999999999999996</v>
+      <c r="B24" s="7">
+        <v>0.13130717863900898</v>
       </c>
       <c r="C24" s="6">
-        <v>-12.1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="6">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C25" s="6">
-        <v>-2.6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="6">
-        <v>0</v>
-      </c>
-      <c r="C26" s="6">
-        <v>-7.6</v>
-      </c>
+        <v>-2.8034250518607791</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="4"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="5"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="4"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C19" xr:uid="{BFD9BADA-7393-4973-A96C-4D2DFF7509DA}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C22">
-      <sortCondition descending="1" ref="C1:C19"/>
+  <autoFilter ref="A1:C18" xr:uid="{BFD9BADA-7393-4973-A96C-4D2DFF7509DA}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C24">
+      <sortCondition descending="1" ref="B1:B18"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="B2:B30">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="B2:B28">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
